--- a/strokenplanning challange c3.xlsx
+++ b/strokenplanning challange c3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikab\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/416185d1c747cde6/Documenten/GitHub/challenge3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{262FDB77-24E1-48A2-A5D3-ECF5E9ED94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{262FDB77-24E1-48A2-A5D3-ECF5E9ED94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53EEA756-D7DB-4B84-AA67-DFC24E25F945}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="1" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -396,10 +396,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,10 +737,10 @@
   <dimension ref="A1:BJ60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ40" sqref="AQ40"/>
+      <selection pane="bottomRight" activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -757,96 +757,96 @@
     </row>
     <row r="2" spans="1:62" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19" t="s">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19" t="s">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19" t="s">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19" t="s">
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19" t="s">
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19" t="s">
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19" t="s">
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19" t="s">
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19" t="s">
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -1661,7 +1661,9 @@
       <c r="AN30" s="16"/>
       <c r="AO30" s="16"/>
       <c r="AP30" s="14"/>
-      <c r="AQ30" s="8"/>
+      <c r="AQ30" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8"/>
       <c r="AT30" s="14"/>
@@ -1750,7 +1752,9 @@
       <c r="AJ33" s="16"/>
       <c r="AK33" s="16"/>
       <c r="AL33" s="14"/>
-      <c r="AM33" s="8"/>
+      <c r="AM33" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="14"/>
@@ -2109,11 +2113,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
@@ -2124,6 +2123,11 @@
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/strokenplanning challange c3.xlsx
+++ b/strokenplanning challange c3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/416185d1c747cde6/Documenten/GitHub/challenge3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{262FDB77-24E1-48A2-A5D3-ECF5E9ED94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53EEA756-D7DB-4B84-AA67-DFC24E25F945}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{262FDB77-24E1-48A2-A5D3-ECF5E9ED94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B72564E-7D2C-4902-8D5A-07E68E88C051}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="1" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="66">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -195,36 +195,18 @@
     <t>Programmeren</t>
   </si>
   <si>
-    <t>Basis layout</t>
-  </si>
-  <si>
-    <t>Reserveringen</t>
-  </si>
-  <si>
     <t>kleurenpallet toepassen</t>
   </si>
   <si>
     <t>Keuzemenu maken</t>
   </si>
   <si>
-    <t>Algemene inhoud</t>
-  </si>
-  <si>
     <t>Menu maken</t>
   </si>
   <si>
-    <t>Vertaler</t>
-  </si>
-  <si>
     <t>Testen</t>
   </si>
   <si>
-    <t>Keuzemenu</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
     <t>Presentatie/Verslag</t>
   </si>
   <si>
@@ -241,6 +223,18 @@
   </si>
   <si>
     <t>Milan</t>
+  </si>
+  <si>
+    <t>home page pagina maken</t>
+  </si>
+  <si>
+    <t>Reserveringen pagina</t>
+  </si>
+  <si>
+    <t>about us pagina maken</t>
+  </si>
+  <si>
+    <t>vertaler google translate</t>
   </si>
 </sst>
 </file>
@@ -396,10 +390,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,10 +731,10 @@
   <dimension ref="A1:BJ60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ30" sqref="AQ30"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -757,96 +751,96 @@
     </row>
     <row r="2" spans="1:62" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20" t="s">
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20" t="s">
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20" t="s">
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20" t="s">
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20" t="s">
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -1572,7 +1566,7 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F28" s="14"/>
       <c r="N28" s="14"/>
@@ -1602,7 +1596,7 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F29" s="14"/>
       <c r="N29" s="14"/>
@@ -1616,7 +1610,7 @@
       <c r="Y29" s="16"/>
       <c r="Z29" s="14"/>
       <c r="AE29" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AF29" s="9"/>
       <c r="AG29" s="9"/>
@@ -1636,7 +1630,7 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="14"/>
       <c r="N30" s="14"/>
@@ -1672,7 +1666,7 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="14"/>
       <c r="N31" s="14"/>
@@ -1706,7 +1700,7 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F32" s="14"/>
       <c r="N32" s="14"/>
@@ -1737,7 +1731,7 @@
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F33" s="14"/>
       <c r="N33" s="14"/>
@@ -1775,7 +1769,7 @@
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F34" s="14"/>
       <c r="N34" s="14"/>
@@ -1799,7 +1793,7 @@
     </row>
     <row r="35" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B35" s="5"/>
       <c r="N35" s="3"/>
@@ -1808,7 +1802,7 @@
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F36" s="14"/>
       <c r="N36" s="14"/>
@@ -1835,7 +1829,7 @@
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F37" s="14"/>
       <c r="N37" s="14"/>
@@ -1849,7 +1843,7 @@
       <c r="Y37" s="16"/>
       <c r="Z37" s="14"/>
       <c r="AE37" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
@@ -1866,7 +1860,7 @@
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F38" s="14"/>
       <c r="N38" s="14"/>
@@ -1899,7 +1893,7 @@
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F39" s="14"/>
       <c r="N39" s="14"/>
@@ -1937,7 +1931,7 @@
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F40" s="14"/>
       <c r="N40" s="14"/>
@@ -1958,7 +1952,7 @@
     </row>
     <row r="41" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B41" s="5"/>
       <c r="N41" s="3"/>
@@ -1968,7 +1962,7 @@
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>24</v>
@@ -2019,7 +2013,7 @@
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F43" s="14"/>
       <c r="N43" s="14"/>
@@ -2047,7 +2041,7 @@
     <row r="45" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B45" s="6"/>
       <c r="C45" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D45" s="8"/>
     </row>
@@ -2072,13 +2066,13 @@
     <row r="49" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B49" s="6"/>
       <c r="C49" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B50" s="6"/>
       <c r="C50" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.5">
@@ -2113,6 +2107,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
@@ -2123,11 +2122,6 @@
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/strokenplanning challange c3.xlsx
+++ b/strokenplanning challange c3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/416185d1c747cde6/Documenten/GitHub/challenge3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{262FDB77-24E1-48A2-A5D3-ECF5E9ED94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B72564E-7D2C-4902-8D5A-07E68E88C051}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{262FDB77-24E1-48A2-A5D3-ECF5E9ED94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{474B8F6E-5E6D-4082-B823-1B3AC86343F0}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="1" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>vertaler google translate</t>
+  </si>
+  <si>
+    <t>3 gerechten kiezen per persoon</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,13 +731,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995B880-CCF8-5A4B-A2D1-8FB852A607F7}">
-  <dimension ref="A1:BJ60"/>
+  <dimension ref="A1:BJ61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -751,96 +754,96 @@
     </row>
     <row r="2" spans="1:62" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19" t="s">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19" t="s">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19" t="s">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19" t="s">
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19" t="s">
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19" t="s">
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19" t="s">
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19" t="s">
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19" t="s">
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -1769,86 +1772,93 @@
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34" s="14"/>
       <c r="N34" s="14"/>
       <c r="R34" s="14"/>
       <c r="V34" s="14"/>
+      <c r="W34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="X34" s="8"/>
       <c r="Z34" s="14"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
       <c r="AH34" s="14"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
       <c r="AL34" s="14"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="8"/>
+      <c r="AO34" s="8"/>
       <c r="AP34" s="14"/>
-      <c r="AQ34" s="11" t="s">
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="16"/>
+      <c r="AT34" s="14"/>
+      <c r="AY34" s="8"/>
+      <c r="AZ34" s="8"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="14"/>
+      <c r="BC34" s="8"/>
+      <c r="BD34" s="8"/>
+      <c r="BE34" s="8"/>
+      <c r="BF34" s="14"/>
+    </row>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.5">
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AR34" s="18"/>
-      <c r="AS34" s="11"/>
-      <c r="AT34" s="14"/>
-      <c r="AY34" s="16"/>
-      <c r="AZ34" s="16"/>
-      <c r="BA34" s="16"/>
-      <c r="BB34" s="14"/>
-      <c r="BF34" s="14"/>
-    </row>
-    <row r="35" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="4" t="s">
+      <c r="AR35" s="18"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="14"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="14"/>
+      <c r="BF35" s="14"/>
+    </row>
+    <row r="36" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.5">
-      <c r="B36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="14"/>
-      <c r="AH36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="16"/>
-      <c r="AR36" s="16"/>
-      <c r="AS36" s="16"/>
-      <c r="AT36" s="14"/>
-      <c r="BB36" s="14"/>
-      <c r="BF36" s="14"/>
+      <c r="B36" s="5"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="14"/>
       <c r="N37" s="14"/>
       <c r="R37" s="14"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
+      <c r="S37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
       <c r="V37" s="14"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
       <c r="Z37" s="14"/>
-      <c r="AE37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
       <c r="AH37" s="14"/>
-      <c r="AI37" s="9"/>
       <c r="AL37" s="14"/>
       <c r="AP37" s="14"/>
       <c r="AQ37" s="16"/>
@@ -1860,7 +1870,7 @@
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F38" s="14"/>
       <c r="N38" s="14"/>
@@ -1873,15 +1883,13 @@
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
       <c r="Z38" s="14"/>
-      <c r="AE38" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
+      <c r="AE38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
       <c r="AH38" s="14"/>
-      <c r="AI38" s="12"/>
-      <c r="AJ38" s="12"/>
-      <c r="AK38" s="12"/>
+      <c r="AI38" s="9"/>
       <c r="AL38" s="14"/>
       <c r="AP38" s="14"/>
       <c r="AQ38" s="16"/>
@@ -1893,7 +1901,7 @@
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="14"/>
       <c r="N39" s="14"/>
@@ -1906,177 +1914,207 @@
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
       <c r="Z39" s="14"/>
+      <c r="AE39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
       <c r="AH39" s="14"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
       <c r="AL39" s="14"/>
-      <c r="AM39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN39" s="8"/>
-      <c r="AO39" s="8"/>
       <c r="AP39" s="14"/>
       <c r="AQ39" s="16"/>
       <c r="AR39" s="16"/>
       <c r="AS39" s="16"/>
       <c r="AT39" s="14"/>
-      <c r="AY39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ39" s="8"/>
-      <c r="BA39" s="8"/>
       <c r="BB39" s="14"/>
-      <c r="BC39" s="8"/>
-      <c r="BD39" s="8"/>
-      <c r="BE39" s="8"/>
       <c r="BF39" s="14"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F40" s="14"/>
       <c r="N40" s="14"/>
       <c r="R40" s="14"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
       <c r="V40" s="14"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
       <c r="Z40" s="14"/>
       <c r="AH40" s="14"/>
       <c r="AL40" s="14"/>
+      <c r="AM40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
       <c r="AP40" s="14"/>
-      <c r="AQ40" s="11" t="s">
+      <c r="AQ40" s="16"/>
+      <c r="AR40" s="16"/>
+      <c r="AS40" s="16"/>
+      <c r="AT40" s="14"/>
+      <c r="AY40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ40" s="8"/>
+      <c r="BA40" s="8"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="8"/>
+      <c r="BD40" s="8"/>
+      <c r="BE40" s="8"/>
+      <c r="BF40" s="14"/>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.5">
+      <c r="B41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AR40" s="11"/>
-      <c r="AS40" s="11"/>
-      <c r="AT40" s="14"/>
-      <c r="BB40" s="14"/>
-      <c r="BF40" s="14"/>
-    </row>
-    <row r="41" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="4" t="s">
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="14"/>
+      <c r="BB41" s="14"/>
+      <c r="BF41" s="14"/>
+    </row>
+    <row r="42" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.5">
-      <c r="B42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="14"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="14"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="8"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="14"/>
-      <c r="AM42" s="8"/>
-      <c r="AN42" s="8"/>
-      <c r="AO42" s="8"/>
-      <c r="AP42" s="14"/>
-      <c r="AQ42" s="8"/>
-      <c r="AR42" s="8"/>
-      <c r="AS42" s="8"/>
-      <c r="AT42" s="14"/>
-      <c r="AY42" s="8"/>
-      <c r="AZ42" s="8"/>
-      <c r="BA42" s="8"/>
-      <c r="BB42" s="14"/>
-      <c r="BC42" s="8"/>
-      <c r="BD42" s="8"/>
-      <c r="BE42" s="8"/>
-      <c r="BF42" s="14"/>
+      <c r="B42" s="5"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="14"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="14"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="14"/>
+      <c r="AY43" s="8"/>
+      <c r="AZ43" s="8"/>
+      <c r="BA43" s="8"/>
+      <c r="BB43" s="14"/>
+      <c r="BC43" s="8"/>
+      <c r="BD43" s="8"/>
+      <c r="BE43" s="8"/>
+      <c r="BF43" s="14"/>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.5">
+      <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AP43" s="14"/>
-      <c r="AT43" s="14"/>
-      <c r="BB43" s="14"/>
-      <c r="BF43" s="14"/>
-      <c r="BG43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH43" s="8"/>
-      <c r="BI43" s="8"/>
-      <c r="BJ43" s="8"/>
-    </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.5">
-      <c r="C44" s="15" t="s">
+      <c r="F44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="BB44" s="14"/>
+      <c r="BF44" s="14"/>
+      <c r="BG44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH44" s="8"/>
+      <c r="BI44" s="8"/>
+      <c r="BJ44" s="8"/>
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.5">
+      <c r="C45" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.5">
-      <c r="B45" s="6"/>
-      <c r="C45" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B46" s="6"/>
-      <c r="C46" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="C46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B47" s="6"/>
-      <c r="C47" s="11" t="s">
-        <v>50</v>
+      <c r="C47" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B48" s="6"/>
-      <c r="C48" s="13" t="s">
-        <v>46</v>
+      <c r="C48" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B49" s="6"/>
-      <c r="C49" s="9" t="s">
-        <v>60</v>
+      <c r="C49" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B50" s="6"/>
-      <c r="C50" s="17" t="s">
-        <v>61</v>
+      <c r="C50" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B51" s="6"/>
+      <c r="C51" s="17" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B52" s="6"/>
@@ -2105,13 +2143,11 @@
     <row r="60" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B60" s="6"/>
     </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.5">
+      <c r="B61" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
@@ -2122,6 +2158,11 @@
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/strokenplanning challange c3.xlsx
+++ b/strokenplanning challange c3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/416185d1c747cde6/Documenten/GitHub/challenge3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{262FDB77-24E1-48A2-A5D3-ECF5E9ED94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{474B8F6E-5E6D-4082-B823-1B3AC86343F0}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{262FDB77-24E1-48A2-A5D3-ECF5E9ED94A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82DEF17A-C93D-4C35-86B6-0EEA56EFD5A1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="1" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="14400" windowHeight="8182" firstSheet="1" activeTab="1" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>3 gerechten kiezen per persoon</t>
+  </si>
+  <si>
+    <t>home page layour maken</t>
+  </si>
+  <si>
+    <t>about us in de home page maken</t>
+  </si>
+  <si>
+    <t>styling keuzemenu</t>
+  </si>
+  <si>
+    <t>styling menu</t>
   </si>
 </sst>
 </file>
@@ -368,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -393,11 +405,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -731,13 +744,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995B880-CCF8-5A4B-A2D1-8FB852A607F7}">
-  <dimension ref="A1:BJ61"/>
+  <dimension ref="A1:BJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W34" sqref="W34"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -754,96 +767,96 @@
     </row>
     <row r="2" spans="1:62" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20" t="s">
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20" t="s">
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20" t="s">
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20" t="s">
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20" t="s">
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20" t="s">
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20" t="s">
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -1569,7 +1582,7 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F28" s="14"/>
       <c r="N28" s="14"/>
@@ -1580,9 +1593,9 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
       <c r="Z28" s="14"/>
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
@@ -1599,7 +1612,7 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F29" s="14"/>
       <c r="N29" s="14"/>
@@ -1608,32 +1621,28 @@
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
+      <c r="W29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
       <c r="Z29" s="14"/>
-      <c r="AE29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
       <c r="AH29" s="14"/>
-      <c r="AI29" s="9"/>
+      <c r="AI29" s="16"/>
       <c r="AJ29" s="16"/>
       <c r="AK29" s="16"/>
       <c r="AL29" s="14"/>
-      <c r="AO29" s="16"/>
       <c r="AP29" s="14"/>
-      <c r="AQ29" s="16"/>
-      <c r="AR29" s="16"/>
-      <c r="AS29" s="16"/>
       <c r="AT29" s="14"/>
       <c r="BB29" s="14"/>
       <c r="BF29" s="14"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F30" s="14"/>
       <c r="N30" s="14"/>
@@ -1646,30 +1655,28 @@
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="14"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
+      <c r="AE30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
       <c r="AH30" s="14"/>
       <c r="AI30" s="16"/>
       <c r="AJ30" s="16"/>
       <c r="AK30" s="16"/>
       <c r="AL30" s="14"/>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
       <c r="AO30" s="16"/>
       <c r="AP30" s="14"/>
-      <c r="AQ30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR30" s="8"/>
-      <c r="AS30" s="8"/>
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="16"/>
       <c r="AT30" s="14"/>
       <c r="BB30" s="14"/>
       <c r="BF30" s="14"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="14"/>
       <c r="N31" s="14"/>
@@ -1682,28 +1689,30 @@
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
       <c r="Z31" s="14"/>
-      <c r="AA31" s="16"/>
-      <c r="AE31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
       <c r="AH31" s="14"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16"/>
       <c r="AL31" s="14"/>
       <c r="AM31" s="16"/>
       <c r="AN31" s="16"/>
       <c r="AO31" s="16"/>
       <c r="AP31" s="14"/>
+      <c r="AQ31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="8"/>
       <c r="AT31" s="14"/>
       <c r="BB31" s="14"/>
       <c r="BF31" s="14"/>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.5">
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F32" s="14"/>
       <c r="N32" s="14"/>
@@ -1728,333 +1737,366 @@
       <c r="AN32" s="16"/>
       <c r="AO32" s="16"/>
       <c r="AP32" s="14"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="8"/>
       <c r="AT32" s="14"/>
       <c r="BB32" s="14"/>
       <c r="BF32" s="14"/>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" s="14"/>
       <c r="N33" s="14"/>
       <c r="R33" s="14"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
       <c r="V33" s="14"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
       <c r="Z33" s="14"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AE33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF33" s="12"/>
       <c r="AG33" s="16"/>
       <c r="AH33" s="14"/>
       <c r="AI33" s="16"/>
       <c r="AJ33" s="16"/>
       <c r="AK33" s="16"/>
       <c r="AL33" s="14"/>
-      <c r="AM33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
       <c r="AP33" s="14"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="16"/>
-      <c r="AS33" s="16"/>
       <c r="AT33" s="14"/>
-      <c r="AY33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ33" s="8"/>
-      <c r="BA33" s="8"/>
       <c r="BB33" s="14"/>
-      <c r="BC33" s="8"/>
-      <c r="BD33" s="8"/>
-      <c r="BE33" s="8"/>
       <c r="BF33" s="14"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F34" s="14"/>
       <c r="N34" s="14"/>
       <c r="R34" s="14"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
       <c r="V34" s="14"/>
-      <c r="W34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="X34" s="8"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
       <c r="Z34" s="14"/>
       <c r="AE34" s="16"/>
       <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
+      <c r="AG34" s="12"/>
       <c r="AH34" s="14"/>
       <c r="AI34" s="16"/>
       <c r="AJ34" s="16"/>
       <c r="AK34" s="16"/>
       <c r="AL34" s="14"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="8"/>
-      <c r="AO34" s="8"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
       <c r="AP34" s="14"/>
-      <c r="AQ34" s="16"/>
-      <c r="AR34" s="16"/>
-      <c r="AS34" s="16"/>
       <c r="AT34" s="14"/>
-      <c r="AY34" s="8"/>
-      <c r="AZ34" s="8"/>
-      <c r="BA34" s="8"/>
       <c r="BB34" s="14"/>
-      <c r="BC34" s="8"/>
-      <c r="BD34" s="8"/>
-      <c r="BE34" s="8"/>
       <c r="BF34" s="14"/>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F35" s="14"/>
       <c r="N35" s="14"/>
       <c r="R35" s="14"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
       <c r="V35" s="14"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
       <c r="Z35" s="14"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
       <c r="AH35" s="14"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
       <c r="AL35" s="14"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
       <c r="AP35" s="14"/>
-      <c r="AQ35" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR35" s="18"/>
-      <c r="AS35" s="11"/>
+      <c r="AQ35" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR35" s="8"/>
       <c r="AT35" s="14"/>
-      <c r="AY35" s="16"/>
-      <c r="AZ35" s="16"/>
-      <c r="BA35" s="16"/>
       <c r="BB35" s="14"/>
       <c r="BF35" s="14"/>
     </row>
-    <row r="36" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+    <row r="36" spans="1:62" x14ac:dyDescent="0.5">
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="16"/>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="14"/>
+      <c r="AY36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ36" s="8"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="14"/>
+      <c r="BC36" s="16"/>
+      <c r="BD36" s="16"/>
+      <c r="BE36" s="16"/>
+      <c r="BF36" s="14"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F37" s="14"/>
       <c r="N37" s="14"/>
       <c r="R37" s="14"/>
-      <c r="S37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
       <c r="V37" s="14"/>
-      <c r="W37" s="8"/>
+      <c r="W37" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
       <c r="Z37" s="14"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
       <c r="AH37" s="14"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
       <c r="AL37" s="14"/>
+      <c r="AM37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN37" s="8"/>
+      <c r="AO37" s="8"/>
       <c r="AP37" s="14"/>
       <c r="AQ37" s="16"/>
       <c r="AR37" s="16"/>
       <c r="AS37" s="16"/>
       <c r="AT37" s="14"/>
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="16"/>
       <c r="BB37" s="14"/>
+      <c r="BC37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD37" s="8"/>
+      <c r="BE37" s="8"/>
       <c r="BF37" s="14"/>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F38" s="14"/>
       <c r="N38" s="14"/>
       <c r="R38" s="14"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
       <c r="V38" s="14"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
       <c r="Z38" s="14"/>
-      <c r="AE38" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
       <c r="AH38" s="14"/>
-      <c r="AI38" s="9"/>
       <c r="AL38" s="14"/>
       <c r="AP38" s="14"/>
-      <c r="AQ38" s="16"/>
-      <c r="AR38" s="16"/>
-      <c r="AS38" s="16"/>
+      <c r="AQ38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR38" s="18"/>
+      <c r="AS38" s="11"/>
       <c r="AT38" s="14"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="16"/>
       <c r="BB38" s="14"/>
       <c r="BF38" s="14"/>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.5">
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="14"/>
-      <c r="AE39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="14"/>
-      <c r="AI39" s="12"/>
-      <c r="AJ39" s="12"/>
-      <c r="AK39" s="12"/>
-      <c r="AL39" s="14"/>
-      <c r="AP39" s="14"/>
-      <c r="AQ39" s="16"/>
-      <c r="AR39" s="16"/>
-      <c r="AS39" s="16"/>
-      <c r="AT39" s="14"/>
-      <c r="BB39" s="14"/>
-      <c r="BF39" s="14"/>
+    <row r="39" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F40" s="14"/>
       <c r="N40" s="14"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
+      <c r="S40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
       <c r="V40" s="14"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
       <c r="Z40" s="14"/>
       <c r="AH40" s="14"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
       <c r="AL40" s="14"/>
-      <c r="AM40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
       <c r="AP40" s="14"/>
       <c r="AQ40" s="16"/>
       <c r="AR40" s="16"/>
       <c r="AS40" s="16"/>
       <c r="AT40" s="14"/>
-      <c r="AY40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ40" s="8"/>
-      <c r="BA40" s="8"/>
       <c r="BB40" s="14"/>
-      <c r="BC40" s="8"/>
-      <c r="BD40" s="8"/>
-      <c r="BE40" s="8"/>
       <c r="BF40" s="14"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F41" s="14"/>
       <c r="N41" s="14"/>
       <c r="R41" s="14"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
       <c r="V41" s="14"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
       <c r="Z41" s="14"/>
+      <c r="AE41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
       <c r="AH41" s="14"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
       <c r="AL41" s="14"/>
       <c r="AP41" s="14"/>
-      <c r="AQ41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR41" s="11"/>
-      <c r="AS41" s="11"/>
+      <c r="AQ41" s="16"/>
+      <c r="AR41" s="16"/>
+      <c r="AS41" s="16"/>
       <c r="AT41" s="14"/>
       <c r="BB41" s="14"/>
       <c r="BF41" s="14"/>
     </row>
-    <row r="42" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.5">
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="14"/>
+      <c r="AE42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="16"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="16"/>
+      <c r="AR42" s="16"/>
+      <c r="AS42" s="16"/>
+      <c r="AT42" s="14"/>
+      <c r="BB42" s="14"/>
+      <c r="BF42" s="14"/>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+        <v>54</v>
+      </c>
       <c r="F43" s="14"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
       <c r="N43" s="14"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
       <c r="R43" s="14"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
       <c r="V43" s="14"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
       <c r="Z43" s="14"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
       <c r="AH43" s="14"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
       <c r="AL43" s="14"/>
-      <c r="AM43" s="8"/>
+      <c r="AM43" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="AN43" s="8"/>
       <c r="AO43" s="8"/>
       <c r="AP43" s="14"/>
-      <c r="AQ43" s="8"/>
-      <c r="AR43" s="8"/>
-      <c r="AS43" s="8"/>
+      <c r="AQ43" s="16"/>
+      <c r="AR43" s="16"/>
+      <c r="AS43" s="16"/>
       <c r="AT43" s="14"/>
-      <c r="AY43" s="8"/>
+      <c r="AY43" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ43" s="8"/>
       <c r="BA43" s="8"/>
       <c r="BB43" s="14"/>
-      <c r="BC43" s="8"/>
-      <c r="BD43" s="8"/>
-      <c r="BE43" s="8"/>
+      <c r="BC43" s="16"/>
+      <c r="BD43" s="16"/>
+      <c r="BE43" s="16"/>
       <c r="BF43" s="14"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.5">
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F44" s="14"/>
       <c r="N44" s="14"/>
@@ -2064,90 +2106,177 @@
       <c r="AH44" s="14"/>
       <c r="AL44" s="14"/>
       <c r="AP44" s="14"/>
+      <c r="AQ44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
       <c r="AT44" s="14"/>
       <c r="BB44" s="14"/>
       <c r="BF44" s="14"/>
-      <c r="BG44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH44" s="8"/>
-      <c r="BI44" s="8"/>
-      <c r="BJ44" s="8"/>
-    </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.5">
-      <c r="C45" s="15" t="s">
+    </row>
+    <row r="45" spans="1:62" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="1:62" x14ac:dyDescent="0.5">
+      <c r="B46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="14"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="14"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="14"/>
+      <c r="AY46" s="8"/>
+      <c r="AZ46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="14"/>
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="14"/>
+    </row>
+    <row r="47" spans="1:62" x14ac:dyDescent="0.5">
+      <c r="B47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AL47" s="14"/>
+      <c r="AP47" s="14"/>
+      <c r="AT47" s="14"/>
+      <c r="BB47" s="14"/>
+      <c r="BF47" s="14"/>
+      <c r="BG47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH47" s="8"/>
+      <c r="BI47" s="8"/>
+      <c r="BJ47" s="8"/>
+    </row>
+    <row r="48" spans="1:62" x14ac:dyDescent="0.5">
+      <c r="C48" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.5">
-      <c r="B46" s="6"/>
-      <c r="C46" s="8" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B49" s="6"/>
+      <c r="C49" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.5">
-      <c r="B47" s="6"/>
-      <c r="C47" s="12" t="s">
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B50" s="6"/>
+      <c r="C50" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.5">
-      <c r="B48" s="6"/>
-      <c r="C48" s="11" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B51" s="6"/>
+      <c r="C51" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B49" s="6"/>
-      <c r="C49" s="13" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B52" s="6"/>
+      <c r="C52" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B50" s="6"/>
-      <c r="C50" s="9" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B53" s="6"/>
+      <c r="C53" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B51" s="6"/>
-      <c r="C51" s="17" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B54" s="6"/>
+      <c r="C54" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
@@ -2158,11 +2287,6 @@
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
